--- a/jyx2/Assets/Mods/jhz/Configs/战斗.xlsx
+++ b/jyx2/Assets/Mods/jhz/Configs/战斗.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="2663" yWindow="2663" windowWidth="19200" windowHeight="11168"/>
+    <workbookView xWindow="23" yWindow="-248" windowWidth="19200" windowHeight="11168"/>
   </bookViews>
   <sheets>
     <sheet name="战斗数据" sheetId="1" r:id="rId1"/>
@@ -1499,8 +1499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1607,7 +1607,7 @@
         <v>128</v>
       </c>
       <c r="D5">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -1633,7 +1633,7 @@
         <v>129</v>
       </c>
       <c r="D6">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -1659,7 +1659,7 @@
         <v>133</v>
       </c>
       <c r="D7">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -1685,7 +1685,7 @@
         <v>134</v>
       </c>
       <c r="D8">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -1711,7 +1711,7 @@
         <v>135</v>
       </c>
       <c r="D9">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E9">
         <v>7</v>
@@ -1737,7 +1737,7 @@
         <v>136</v>
       </c>
       <c r="D10">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E10">
         <v>6</v>
@@ -1763,7 +1763,7 @@
         <v>136</v>
       </c>
       <c r="D11">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="E11">
         <v>7</v>
@@ -1789,7 +1789,7 @@
         <v>181</v>
       </c>
       <c r="D12">
-        <v>50</v>
+        <v>600</v>
       </c>
       <c r="E12">
         <v>5</v>
@@ -1815,7 +1815,7 @@
         <v>137</v>
       </c>
       <c r="D13">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E13">
         <v>5</v>
@@ -1841,7 +1841,7 @@
         <v>137</v>
       </c>
       <c r="D14">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E14">
         <v>6</v>
@@ -1867,7 +1867,7 @@
         <v>137</v>
       </c>
       <c r="D15">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E15">
         <v>6</v>
@@ -1893,7 +1893,7 @@
         <v>138</v>
       </c>
       <c r="D16">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E16">
         <v>6</v>
@@ -1919,7 +1919,7 @@
         <v>154</v>
       </c>
       <c r="D17">
-        <v>2300</v>
+        <v>600</v>
       </c>
       <c r="E17">
         <v>7</v>
@@ -1945,7 +1945,7 @@
         <v>155</v>
       </c>
       <c r="D18">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="E18">
         <v>6</v>
@@ -1971,7 +1971,7 @@
         <v>156</v>
       </c>
       <c r="D19">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E19">
         <v>5</v>
@@ -1997,7 +1997,7 @@
         <v>157</v>
       </c>
       <c r="D20">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="E20">
         <v>7</v>
@@ -2023,7 +2023,7 @@
         <v>158</v>
       </c>
       <c r="D21">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E21">
         <v>6</v>
@@ -2049,7 +2049,7 @@
         <v>140</v>
       </c>
       <c r="D22">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E22">
         <v>6</v>
@@ -2075,7 +2075,7 @@
         <v>138</v>
       </c>
       <c r="D23">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E23">
         <v>6</v>
@@ -2101,7 +2101,7 @@
         <v>158</v>
       </c>
       <c r="D24">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E24">
         <v>6</v>
@@ -2127,7 +2127,7 @@
         <v>159</v>
       </c>
       <c r="D25">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E25">
         <v>6</v>
@@ -2153,7 +2153,7 @@
         <v>160</v>
       </c>
       <c r="D26">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E26">
         <v>6</v>
@@ -2179,7 +2179,7 @@
         <v>161</v>
       </c>
       <c r="D27">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="E27">
         <v>5</v>
@@ -2205,7 +2205,7 @@
         <v>124</v>
       </c>
       <c r="D28">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E28">
         <v>5</v>
@@ -2231,7 +2231,7 @@
         <v>122</v>
       </c>
       <c r="D29">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E29">
         <v>6</v>
@@ -2257,7 +2257,7 @@
         <v>162</v>
       </c>
       <c r="D30">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E30">
         <v>5</v>
@@ -2283,7 +2283,7 @@
         <v>162</v>
       </c>
       <c r="D31">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E31">
         <v>6</v>
@@ -2309,7 +2309,7 @@
         <v>140</v>
       </c>
       <c r="D32">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E32">
         <v>5</v>
@@ -2335,7 +2335,7 @@
         <v>158</v>
       </c>
       <c r="D33">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E33">
         <v>6</v>
@@ -2361,7 +2361,7 @@
         <v>123</v>
       </c>
       <c r="D34">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E34">
         <v>5</v>
@@ -2387,7 +2387,7 @@
         <v>123</v>
       </c>
       <c r="D35">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E35">
         <v>6</v>
@@ -2413,7 +2413,7 @@
         <v>122</v>
       </c>
       <c r="D36">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E36">
         <v>6</v>
@@ -2439,7 +2439,7 @@
         <v>122</v>
       </c>
       <c r="D37">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E37">
         <v>6</v>
@@ -2465,7 +2465,7 @@
         <v>122</v>
       </c>
       <c r="D38">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E38">
         <v>6</v>
@@ -2491,7 +2491,7 @@
         <v>122</v>
       </c>
       <c r="D39">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E39">
         <v>6</v>
@@ -2517,7 +2517,7 @@
         <v>122</v>
       </c>
       <c r="D40">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E40">
         <v>6</v>
@@ -2543,7 +2543,7 @@
         <v>123</v>
       </c>
       <c r="D41">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E41">
         <v>6</v>
@@ -2569,7 +2569,7 @@
         <v>122</v>
       </c>
       <c r="D42">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E42">
         <v>6</v>
@@ -2595,7 +2595,7 @@
         <v>124</v>
       </c>
       <c r="D43">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E43">
         <v>6</v>
@@ -2621,7 +2621,7 @@
         <v>122</v>
       </c>
       <c r="D44">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E44">
         <v>6</v>
@@ -2647,7 +2647,7 @@
         <v>162</v>
       </c>
       <c r="D45">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E45">
         <v>6</v>
@@ -2673,7 +2673,7 @@
         <v>140</v>
       </c>
       <c r="D46">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E46">
         <v>6</v>
@@ -2699,7 +2699,7 @@
         <v>158</v>
       </c>
       <c r="D47">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E47">
         <v>5</v>
@@ -2725,7 +2725,7 @@
         <v>172</v>
       </c>
       <c r="D48">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E48">
         <v>5</v>
@@ -2751,7 +2751,7 @@
         <v>170</v>
       </c>
       <c r="D49">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E49">
         <v>5</v>
@@ -2777,7 +2777,7 @@
         <v>171</v>
       </c>
       <c r="D50">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E50">
         <v>5</v>
@@ -2829,7 +2829,7 @@
         <v>170</v>
       </c>
       <c r="D52">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="E52">
         <v>5</v>
@@ -2855,7 +2855,7 @@
         <v>140</v>
       </c>
       <c r="D53">
-        <v>50</v>
+        <v>600</v>
       </c>
       <c r="E53">
         <v>5</v>
@@ -2881,7 +2881,7 @@
         <v>169</v>
       </c>
       <c r="D54">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E54">
         <v>5</v>
@@ -2907,7 +2907,7 @@
         <v>169</v>
       </c>
       <c r="D55">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E55">
         <v>6</v>
@@ -2933,7 +2933,7 @@
         <v>169</v>
       </c>
       <c r="D56">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E56">
         <v>6</v>
@@ -2959,7 +2959,7 @@
         <v>135</v>
       </c>
       <c r="D57">
-        <v>50</v>
+        <v>600</v>
       </c>
       <c r="E57">
         <v>5</v>
@@ -2985,7 +2985,7 @@
         <v>140</v>
       </c>
       <c r="D58">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="E58">
         <v>5</v>
@@ -3011,7 +3011,7 @@
         <v>168</v>
       </c>
       <c r="D59">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="E59">
         <v>7</v>
@@ -3037,7 +3037,7 @@
         <v>167</v>
       </c>
       <c r="D60">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="E60">
         <v>7</v>
@@ -3063,7 +3063,7 @@
         <v>167</v>
       </c>
       <c r="D61">
-        <v>2500</v>
+        <v>600</v>
       </c>
       <c r="E61">
         <v>7</v>
@@ -3089,7 +3089,7 @@
         <v>167</v>
       </c>
       <c r="D62">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="E62">
         <v>7</v>
@@ -3115,7 +3115,7 @@
         <v>165</v>
       </c>
       <c r="D63">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E63">
         <v>5</v>
@@ -3141,7 +3141,7 @@
         <v>166</v>
       </c>
       <c r="D64">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E64">
         <v>5</v>
@@ -3167,7 +3167,7 @@
         <v>165</v>
       </c>
       <c r="D65">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E65">
         <v>6</v>
@@ -3193,7 +3193,7 @@
         <v>164</v>
       </c>
       <c r="D66">
-        <v>280</v>
+        <v>600</v>
       </c>
       <c r="E66">
         <v>5</v>
@@ -3219,7 +3219,7 @@
         <v>164</v>
       </c>
       <c r="D67">
-        <v>280</v>
+        <v>600</v>
       </c>
       <c r="E67">
         <v>5</v>
@@ -3245,7 +3245,7 @@
         <v>164</v>
       </c>
       <c r="D68">
-        <v>630</v>
+        <v>600</v>
       </c>
       <c r="E68">
         <v>6</v>
@@ -3271,7 +3271,7 @@
         <v>164</v>
       </c>
       <c r="D69">
-        <v>280</v>
+        <v>600</v>
       </c>
       <c r="E69">
         <v>5</v>
@@ -3297,7 +3297,7 @@
         <v>164</v>
       </c>
       <c r="D70">
-        <v>280</v>
+        <v>600</v>
       </c>
       <c r="E70">
         <v>5</v>
@@ -3323,7 +3323,7 @@
         <v>163</v>
       </c>
       <c r="D71">
-        <v>950</v>
+        <v>600</v>
       </c>
       <c r="E71">
         <v>6</v>
@@ -3349,7 +3349,7 @@
         <v>125</v>
       </c>
       <c r="D72">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="E72">
         <v>6</v>
@@ -3375,7 +3375,7 @@
         <v>133</v>
       </c>
       <c r="D73">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="E73">
         <v>6</v>
@@ -3401,7 +3401,7 @@
         <v>158</v>
       </c>
       <c r="D74">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E74">
         <v>5</v>
@@ -3427,7 +3427,7 @@
         <v>127</v>
       </c>
       <c r="D75">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E75">
         <v>5</v>
@@ -3453,7 +3453,7 @@
         <v>127</v>
       </c>
       <c r="D76">
-        <v>1600</v>
+        <v>600</v>
       </c>
       <c r="E76">
         <v>6</v>
@@ -3479,7 +3479,7 @@
         <v>127</v>
       </c>
       <c r="D77">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="E77">
         <v>6</v>
@@ -3505,7 +3505,7 @@
         <v>127</v>
       </c>
       <c r="D78">
-        <v>330</v>
+        <v>600</v>
       </c>
       <c r="E78">
         <v>5</v>
@@ -3531,7 +3531,7 @@
         <v>156</v>
       </c>
       <c r="D79">
-        <v>1650</v>
+        <v>600</v>
       </c>
       <c r="E79">
         <v>6</v>
@@ -3557,7 +3557,7 @@
         <v>156</v>
       </c>
       <c r="D80">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="E80">
         <v>6</v>
@@ -3583,7 +3583,7 @@
         <v>153</v>
       </c>
       <c r="D81">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="E81">
         <v>7</v>
@@ -3609,7 +3609,7 @@
         <v>125</v>
       </c>
       <c r="D82">
-        <v>2300</v>
+        <v>600</v>
       </c>
       <c r="E82">
         <v>7</v>
@@ -3661,7 +3661,7 @@
         <v>151</v>
       </c>
       <c r="D84">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E84">
         <v>5</v>
@@ -3713,7 +3713,7 @@
         <v>150</v>
       </c>
       <c r="D86">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="E86">
         <v>7</v>
@@ -3765,7 +3765,7 @@
         <v>149</v>
       </c>
       <c r="D88">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="E88">
         <v>7</v>
@@ -3791,7 +3791,7 @@
         <v>144</v>
       </c>
       <c r="D89">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="E89">
         <v>6</v>
@@ -3817,7 +3817,7 @@
         <v>144</v>
       </c>
       <c r="D90">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E90">
         <v>6</v>
@@ -3843,7 +3843,7 @@
         <v>148</v>
       </c>
       <c r="D91">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="E91">
         <v>6</v>
@@ -3869,7 +3869,7 @@
         <v>143</v>
       </c>
       <c r="D92">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E92">
         <v>5</v>
@@ -3895,7 +3895,7 @@
         <v>147</v>
       </c>
       <c r="D93">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E93">
         <v>6</v>
@@ -3921,7 +3921,7 @@
         <v>146</v>
       </c>
       <c r="D94">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="E94">
         <v>6</v>
@@ -3947,7 +3947,7 @@
         <v>145</v>
       </c>
       <c r="D95">
-        <v>2400</v>
+        <v>600</v>
       </c>
       <c r="E95">
         <v>7</v>
@@ -3973,7 +3973,7 @@
         <v>144</v>
       </c>
       <c r="D96">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E96">
         <v>5</v>
@@ -3999,7 +3999,7 @@
         <v>143</v>
       </c>
       <c r="D97">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E97">
         <v>5</v>
@@ -4025,7 +4025,7 @@
         <v>142</v>
       </c>
       <c r="D98">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="E98">
         <v>7</v>
@@ -4051,7 +4051,7 @@
         <v>140</v>
       </c>
       <c r="D99">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="E99">
         <v>5</v>
@@ -4077,7 +4077,7 @@
         <v>140</v>
       </c>
       <c r="D100">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="E100">
         <v>6</v>
@@ -4103,7 +4103,7 @@
         <v>141</v>
       </c>
       <c r="D101">
-        <v>230</v>
+        <v>600</v>
       </c>
       <c r="E101">
         <v>5</v>
@@ -4129,7 +4129,7 @@
         <v>129</v>
       </c>
       <c r="D102">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="E102">
         <v>5</v>
@@ -4155,7 +4155,7 @@
         <v>133</v>
       </c>
       <c r="D103">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="E103">
         <v>5</v>
@@ -4181,7 +4181,7 @@
         <v>140</v>
       </c>
       <c r="D104">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="E104">
         <v>5</v>
@@ -4207,7 +4207,7 @@
         <v>139</v>
       </c>
       <c r="D105">
-        <v>1250</v>
+        <v>600</v>
       </c>
       <c r="E105">
         <v>6</v>
@@ -4259,7 +4259,7 @@
         <v>122</v>
       </c>
       <c r="D107">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E107">
         <v>5</v>
@@ -4311,7 +4311,7 @@
         <v>123</v>
       </c>
       <c r="D109">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E109">
         <v>5</v>
@@ -4337,7 +4337,7 @@
         <v>124</v>
       </c>
       <c r="D110">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E110">
         <v>5</v>
@@ -4363,7 +4363,7 @@
         <v>122</v>
       </c>
       <c r="D111">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="E111">
         <v>5</v>
@@ -4389,7 +4389,7 @@
         <v>122</v>
       </c>
       <c r="D112">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="E112">
         <v>5</v>
@@ -4415,7 +4415,7 @@
         <v>122</v>
       </c>
       <c r="D113">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="E113">
         <v>6</v>
@@ -4441,7 +4441,7 @@
         <v>123</v>
       </c>
       <c r="D114">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="E114">
         <v>6</v>
@@ -4467,7 +4467,7 @@
         <v>122</v>
       </c>
       <c r="D115">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="E115">
         <v>6</v>
@@ -4493,7 +4493,7 @@
         <v>122</v>
       </c>
       <c r="D116">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="E116">
         <v>6</v>
@@ -4519,7 +4519,7 @@
         <v>123</v>
       </c>
       <c r="D117">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="E117">
         <v>6</v>
@@ -4545,7 +4545,7 @@
         <v>123</v>
       </c>
       <c r="D118">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="E118">
         <v>6</v>
@@ -4571,7 +4571,7 @@
         <v>122</v>
       </c>
       <c r="D119">
-        <v>1600</v>
+        <v>600</v>
       </c>
       <c r="E119">
         <v>6</v>
@@ -4597,7 +4597,7 @@
         <v>122</v>
       </c>
       <c r="D120">
-        <v>1700</v>
+        <v>600</v>
       </c>
       <c r="E120">
         <v>6</v>
@@ -4623,7 +4623,7 @@
         <v>124</v>
       </c>
       <c r="D121">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="E121">
         <v>6</v>
@@ -4649,7 +4649,7 @@
         <v>122</v>
       </c>
       <c r="D122">
-        <v>1900</v>
+        <v>600</v>
       </c>
       <c r="E122">
         <v>6</v>
@@ -4675,7 +4675,7 @@
         <v>132</v>
       </c>
       <c r="D123">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="E123">
         <v>6</v>
@@ -4701,7 +4701,7 @@
         <v>122</v>
       </c>
       <c r="D124">
-        <v>2100</v>
+        <v>600</v>
       </c>
       <c r="E124">
         <v>6</v>
